--- a/data/case1/5/V1_2.xlsx
+++ b/data/case1/5/V1_2.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999998911003762</v>
+        <v>0.99999999272596618</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99276378375702212</v>
+        <v>0.99564781667934743</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.96883161134894802</v>
+        <v>0.97603340789236714</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.95888382999853472</v>
+        <v>0.96742267913264024</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.94934183430055152</v>
+        <v>0.95925901665258628</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.92595795447351392</v>
+        <v>0.93940539984420446</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.924688631164581</v>
+        <v>0.93389163311969503</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.92341430216162745</v>
+        <v>0.92637064078811338</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.92528655747341104</v>
+        <v>0.93032888771307354</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.92813648732155785</v>
+        <v>0.9352939468179573</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.92868432652461652</v>
+        <v>0.93619362933502748</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.92998470571890646</v>
+        <v>0.93341407638150709</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.9282773221931766</v>
+        <v>0.92212793458537312</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.92840487720580622</v>
+        <v>0.91796081451057288</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.92980957611415582</v>
+        <v>0.91536945353654398</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.93202425750327711</v>
+        <v>0.91286304919101358</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.92831661726857906</v>
+        <v>0.90915523249956087</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.92720773973910686</v>
+        <v>0.9080463348242892</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.98727801747129451</v>
+        <v>0.99459463093536993</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.96027560766867814</v>
+        <v>0.98747768899208932</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.95290152675592554</v>
+        <v>0.98607922159196426</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.94074109454342936</v>
+        <v>0.98481472670228576</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.9592578055191463</v>
+        <v>0.96899803930389372</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.94088546917714988</v>
+        <v>0.95597657763923083</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.92918180777193449</v>
+        <v>0.94951948991357915</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.92230085690105057</v>
+        <v>0.93574965967785928</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.9174521680370229</v>
+        <v>0.93090276109271253</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.89597234203490728</v>
+        <v>0.90942878835936347</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.88069865692597715</v>
+        <v>0.89415706331173139</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.87412787755260857</v>
+        <v>0.8875866137665509</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.86647403391097322</v>
+        <v>0.87993284481851997</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.86479477276606442</v>
+        <v>0.87825354326913296</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.86427478400887048</v>
+        <v>0.8777335458339286</v>
       </c>
     </row>
   </sheetData>
